--- a/public/TemplateExcel/Template_Data_Branch.xlsx
+++ b/public/TemplateExcel/Template_Data_Branch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezafakhreza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CE244F-1C12-459E-8013-2A98D76DA972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57160E3E-F16F-409A-802D-35E4CD39B928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A70ECEC-4C3A-4CD6-8485-3ECBF184CBA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A70ECEC-4C3A-4CD6-8485-3ECBF184CBA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Kode Uker</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Uker Induk (Kanwil)</t>
+  </si>
+  <si>
+    <t>Nama Kanwil</t>
+  </si>
+  <si>
+    <t>REGIONAL OFFICE MAKASSAR</t>
   </si>
 </sst>
 </file>
@@ -138,9 +144,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +184,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -284,7 +290,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,23 +440,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA829AF0-EE16-4607-A9C8-E97712FA43D8}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,13 +471,16 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -484,9 +494,12 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
